--- a/analysis/csv files/graphs_v2/graph-2-fedsub.xlsx
+++ b/analysis/csv files/graphs_v2/graph-2-fedsub.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">group</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">Black or African American alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hispanic or Latinx</t>
   </si>
   <si>
     <t xml:space="preserve">AIAN alone</t>
@@ -449,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.495104838172448</v>
+        <v>0.462381628016643</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -457,7 +460,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -471,7 +474,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -488,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>0.0118729177870036</v>
@@ -502,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>0.0175983172988961</v>
@@ -513,13 +516,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0369647979762773</v>
+        <v>0.0254963531888004</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
@@ -527,13 +530,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0427822123331452</v>
+        <v>0.0369647979762773</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -541,10 +544,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>0.0427822123331452</v>
@@ -558,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>0.0644985061889152</v>
@@ -572,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>0.00767679945347985</v>
@@ -586,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
         <v>0.00986449586274627</v>
@@ -597,10 +600,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
         <v>0.0205681998935345</v>
@@ -614,10 +617,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0205681998935345</v>
+        <v>0.0251256543299373</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -625,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
         <v>0.0424904607903179</v>
@@ -642,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
         <v>0.0666207693270316</v>
@@ -656,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
         <v>0.00873706765982047</v>
@@ -667,10 +670,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
         <v>0.0100475199299715</v>
@@ -684,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
         <v>0.0158683849559869</v>
@@ -695,13 +698,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0168829817339816</v>
+        <v>0.0166595068671192</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -709,13 +712,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0196711843658966</v>
+        <v>0.0168829817339816</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -723,10 +726,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
         <v>0.0196711843658966</v>
@@ -737,10 +740,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="n">
         <v>0.338750170071855</v>
@@ -751,10 +754,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
         <v>0.421873565234976</v>
@@ -765,13 +768,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>0.421873565234976</v>
+        <v>0.426307868970706</v>
       </c>
       <c r="D28" t="n">
         <v>4</v>
@@ -779,13 +782,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>0.426307868970706</v>
+        <v>0.470336857597501</v>
       </c>
       <c r="D29" t="n">
         <v>3</v>
@@ -796,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
         <v>0.5816214709546</v>
@@ -810,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="n">
         <v>0.68841550801206</v>
